--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Datamatics Global Services Ltd/Pruned_Excel/Final_Parameters/Datamatics Global Services Ltd_Cleaned_Data_Updated.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Datamatics Global Services Ltd/Pruned_Excel/Final_Parameters/Datamatics Global Services Ltd_Cleaned_Data_Updated.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="146">
   <si>
     <t>Balance Sheet of Datamatics Global Services(in Rs. Cr.)</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>P/l before exceptional items &amp; tax</t>
+  </si>
+  <si>
+    <t>Exceptional items</t>
   </si>
   <si>
     <t>P/l before tax</t>
@@ -3747,13 +3750,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -3814,10 +3817,13 @@
       <c r="T1" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>54.03</v>
@@ -3849,23 +3855,20 @@
       <c r="K2">
         <v>10.11</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>10.11</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.61</v>
-      </c>
-      <c r="N2">
-        <v>9.5</v>
       </c>
       <c r="O2">
         <v>9.5</v>
       </c>
       <c r="P2">
+        <v>9.5</v>
+      </c>
+      <c r="Q2">
         <v>29.48</v>
-      </c>
-      <c r="Q2">
-        <v>1.61</v>
       </c>
       <c r="R2">
         <v>1.61</v>
@@ -3876,10 +3879,13 @@
       <c r="T2">
         <v>1.61</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>57.73</v>
@@ -3911,23 +3917,20 @@
       <c r="K3">
         <v>11.43</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>11.43</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>2.08</v>
-      </c>
-      <c r="N3">
-        <v>9.359999999999999</v>
       </c>
       <c r="O3">
         <v>9.359999999999999</v>
       </c>
       <c r="P3">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="Q3">
         <v>29.48</v>
-      </c>
-      <c r="Q3">
-        <v>1.59</v>
       </c>
       <c r="R3">
         <v>1.59</v>
@@ -3938,10 +3941,13 @@
       <c r="T3">
         <v>1.59</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4">
         <v>47.48</v>
@@ -3973,23 +3979,20 @@
       <c r="K4">
         <v>8.630000000000001</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>8.630000000000001</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1.09</v>
-      </c>
-      <c r="N4">
-        <v>7.55</v>
       </c>
       <c r="O4">
         <v>7.55</v>
       </c>
       <c r="P4">
+        <v>7.55</v>
+      </c>
+      <c r="Q4">
         <v>29.48</v>
-      </c>
-      <c r="Q4">
-        <v>1.28</v>
       </c>
       <c r="R4">
         <v>1.28</v>
@@ -4000,10 +4003,13 @@
       <c r="T4">
         <v>1.28</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5">
         <v>45.5</v>
@@ -4035,23 +4041,20 @@
       <c r="K5">
         <v>7.09</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>7.09</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1.5</v>
-      </c>
-      <c r="N5">
-        <v>5.59</v>
       </c>
       <c r="O5">
         <v>5.59</v>
       </c>
       <c r="P5">
+        <v>5.59</v>
+      </c>
+      <c r="Q5">
         <v>29.48</v>
-      </c>
-      <c r="Q5">
-        <v>0.95</v>
       </c>
       <c r="R5">
         <v>0.95</v>
@@ -4062,10 +4065,13 @@
       <c r="T5">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6">
         <v>45.35</v>
@@ -4097,23 +4103,20 @@
       <c r="K6">
         <v>17.13</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>17.13</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2.31</v>
-      </c>
-      <c r="N6">
-        <v>14.82</v>
       </c>
       <c r="O6">
         <v>14.82</v>
       </c>
       <c r="P6">
+        <v>14.82</v>
+      </c>
+      <c r="Q6">
         <v>29.48</v>
-      </c>
-      <c r="Q6">
-        <v>2.51</v>
       </c>
       <c r="R6">
         <v>2.51</v>
@@ -4124,10 +4127,13 @@
       <c r="T6">
         <v>2.51</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="U6">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7">
         <v>50.26</v>
@@ -4159,23 +4165,20 @@
       <c r="K7">
         <v>8.31</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>8.31</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.77</v>
-      </c>
-      <c r="N7">
-        <v>7.54</v>
       </c>
       <c r="O7">
         <v>7.54</v>
       </c>
       <c r="P7">
+        <v>7.54</v>
+      </c>
+      <c r="Q7">
         <v>29.48</v>
-      </c>
-      <c r="Q7">
-        <v>1.28</v>
       </c>
       <c r="R7">
         <v>1.28</v>
@@ -4186,10 +4189,13 @@
       <c r="T7">
         <v>1.28</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8">
         <v>52.58</v>
@@ -4221,23 +4227,20 @@
       <c r="K8">
         <v>9.890000000000001</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>9.890000000000001</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1.67</v>
-      </c>
-      <c r="N8">
-        <v>8.23</v>
       </c>
       <c r="O8">
         <v>8.23</v>
       </c>
       <c r="P8">
+        <v>8.23</v>
+      </c>
+      <c r="Q8">
         <v>29.48</v>
-      </c>
-      <c r="Q8">
-        <v>1.4</v>
       </c>
       <c r="R8">
         <v>1.4</v>
@@ -4248,10 +4251,13 @@
       <c r="T8">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B9">
         <v>47.33</v>
@@ -4283,23 +4289,20 @@
       <c r="K9">
         <v>4.54</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>4.54</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.25</v>
-      </c>
-      <c r="N9">
-        <v>4.28</v>
       </c>
       <c r="O9">
         <v>4.28</v>
       </c>
       <c r="P9">
+        <v>4.28</v>
+      </c>
+      <c r="Q9">
         <v>29.48</v>
-      </c>
-      <c r="Q9">
-        <v>0.73</v>
       </c>
       <c r="R9">
         <v>0.73</v>
@@ -4310,10 +4313,13 @@
       <c r="T9">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B10">
         <v>46.52</v>
@@ -4345,23 +4351,20 @@
       <c r="K10">
         <v>8.24</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>8.24</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1.67</v>
-      </c>
-      <c r="N10">
-        <v>6.58</v>
       </c>
       <c r="O10">
         <v>6.58</v>
       </c>
       <c r="P10">
+        <v>6.58</v>
+      </c>
+      <c r="Q10">
         <v>29.48</v>
-      </c>
-      <c r="Q10">
-        <v>1.12</v>
       </c>
       <c r="R10">
         <v>1.12</v>
@@ -4372,10 +4375,13 @@
       <c r="T10">
         <v>1.12</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B11">
         <v>45.34</v>
@@ -4407,23 +4413,20 @@
       <c r="K11">
         <v>5.06</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>5.06</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.39</v>
-      </c>
-      <c r="N11">
-        <v>4.66</v>
       </c>
       <c r="O11">
         <v>4.66</v>
       </c>
       <c r="P11">
+        <v>4.66</v>
+      </c>
+      <c r="Q11">
         <v>29.48</v>
-      </c>
-      <c r="Q11">
-        <v>0.79</v>
       </c>
       <c r="R11">
         <v>0.79</v>
@@ -4434,10 +4437,13 @@
       <c r="T11">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B12">
         <v>78.51000000000001</v>
@@ -4470,22 +4476,22 @@
         <v>10.09</v>
       </c>
       <c r="L12">
+        <v>-2.39</v>
+      </c>
+      <c r="M12">
         <v>7.7</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1.86</v>
-      </c>
-      <c r="N12">
-        <v>5.85</v>
       </c>
       <c r="O12">
         <v>5.85</v>
       </c>
       <c r="P12">
+        <v>5.85</v>
+      </c>
+      <c r="Q12">
         <v>29.48</v>
-      </c>
-      <c r="Q12">
-        <v>0.99</v>
       </c>
       <c r="R12">
         <v>0.99</v>
@@ -4496,10 +4502,13 @@
       <c r="T12">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B13">
         <v>71</v>
@@ -4531,23 +4540,20 @@
       <c r="K13">
         <v>7.97</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>7.97</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.91</v>
-      </c>
-      <c r="N13">
-        <v>7.06</v>
       </c>
       <c r="O13">
         <v>7.06</v>
       </c>
       <c r="P13">
+        <v>7.06</v>
+      </c>
+      <c r="Q13">
         <v>29.48</v>
-      </c>
-      <c r="Q13">
-        <v>1.2</v>
       </c>
       <c r="R13">
         <v>1.2</v>
@@ -4558,10 +4564,13 @@
       <c r="T13">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B14">
         <v>70.61</v>
@@ -4593,23 +4602,20 @@
       <c r="K14">
         <v>6.61</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>6.61</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1.41</v>
-      </c>
-      <c r="N14">
-        <v>5.2</v>
       </c>
       <c r="O14">
         <v>5.2</v>
       </c>
       <c r="P14">
+        <v>5.2</v>
+      </c>
+      <c r="Q14">
         <v>29.48</v>
-      </c>
-      <c r="Q14">
-        <v>0.88</v>
       </c>
       <c r="R14">
         <v>0.88</v>
@@ -4620,10 +4626,13 @@
       <c r="T14">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B15">
         <v>135.18</v>
@@ -4656,36 +4665,39 @@
         <v>20.15</v>
       </c>
       <c r="L15">
+        <v>-6.57</v>
+      </c>
+      <c r="M15">
         <v>13.59</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>5.18</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>8.41</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>13.27</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>29.48</v>
-      </c>
-      <c r="Q15">
-        <v>1.43</v>
       </c>
       <c r="R15">
         <v>1.43</v>
       </c>
       <c r="S15">
-        <v>2.25</v>
+        <v>1.43</v>
       </c>
       <c r="T15">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="U15">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16">
         <v>85.59</v>
@@ -4718,22 +4730,22 @@
         <v>12.37</v>
       </c>
       <c r="L16">
+        <v>-13.02</v>
+      </c>
+      <c r="M16">
         <v>-0.65</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-4.38</v>
-      </c>
-      <c r="N16">
-        <v>3.73</v>
       </c>
       <c r="O16">
         <v>3.73</v>
       </c>
       <c r="P16">
+        <v>3.73</v>
+      </c>
+      <c r="Q16">
         <v>29.48</v>
-      </c>
-      <c r="Q16">
-        <v>0.63</v>
       </c>
       <c r="R16">
         <v>0.63</v>
@@ -4744,10 +4756,13 @@
       <c r="T16">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B17">
         <v>80.98999999999999</v>
@@ -4779,23 +4794,20 @@
       <c r="K17">
         <v>19.26</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>19.26</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>4.46</v>
-      </c>
-      <c r="N17">
-        <v>14.8</v>
       </c>
       <c r="O17">
         <v>14.8</v>
       </c>
       <c r="P17">
+        <v>14.8</v>
+      </c>
+      <c r="Q17">
         <v>29.48</v>
-      </c>
-      <c r="Q17">
-        <v>2.51</v>
       </c>
       <c r="R17">
         <v>2.51</v>
@@ -4806,10 +4818,13 @@
       <c r="T17">
         <v>2.51</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B18">
         <v>78.23</v>
@@ -4841,23 +4856,20 @@
       <c r="K18">
         <v>11.84</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>11.84</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>2.25</v>
-      </c>
-      <c r="N18">
-        <v>9.58</v>
       </c>
       <c r="O18">
         <v>9.58</v>
       </c>
       <c r="P18">
+        <v>9.58</v>
+      </c>
+      <c r="Q18">
         <v>29.48</v>
-      </c>
-      <c r="Q18">
-        <v>1.63</v>
       </c>
       <c r="R18">
         <v>1.63</v>
@@ -4868,10 +4880,13 @@
       <c r="T18">
         <v>1.63</v>
       </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="U18">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B19">
         <v>77.73999999999999</v>
@@ -4903,23 +4918,20 @@
       <c r="K19">
         <v>7.64</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>7.64</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>1.16</v>
-      </c>
-      <c r="N19">
-        <v>6.47</v>
       </c>
       <c r="O19">
         <v>6.47</v>
       </c>
       <c r="P19">
+        <v>6.47</v>
+      </c>
+      <c r="Q19">
         <v>29.48</v>
-      </c>
-      <c r="Q19">
-        <v>1.08</v>
       </c>
       <c r="R19">
         <v>1.08</v>
@@ -4930,10 +4942,13 @@
       <c r="T19">
         <v>1.08</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B20">
         <v>88.42</v>
@@ -4965,23 +4980,20 @@
       <c r="K20">
         <v>10.44</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>10.44</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>3.31</v>
-      </c>
-      <c r="N20">
-        <v>7.14</v>
       </c>
       <c r="O20">
         <v>7.14</v>
       </c>
       <c r="P20">
+        <v>7.14</v>
+      </c>
+      <c r="Q20">
         <v>29.48</v>
-      </c>
-      <c r="Q20">
-        <v>1.21</v>
       </c>
       <c r="R20">
         <v>1.21</v>
@@ -4992,10 +5004,13 @@
       <c r="T20">
         <v>1.21</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B21">
         <v>102.68</v>
@@ -5027,23 +5042,20 @@
       <c r="K21">
         <v>13.61</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>13.61</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>3.8</v>
-      </c>
-      <c r="N21">
-        <v>9.81</v>
       </c>
       <c r="O21">
         <v>9.81</v>
       </c>
       <c r="P21">
+        <v>9.81</v>
+      </c>
+      <c r="Q21">
         <v>29.48</v>
-      </c>
-      <c r="Q21">
-        <v>1.66</v>
       </c>
       <c r="R21">
         <v>1.66</v>
@@ -5054,10 +5066,13 @@
       <c r="T21">
         <v>1.66</v>
       </c>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="U21">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B22">
         <v>95.45999999999999</v>
@@ -5089,23 +5104,20 @@
       <c r="K22">
         <v>1.97</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>1.97</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>-0.66</v>
-      </c>
-      <c r="N22">
-        <v>2.63</v>
       </c>
       <c r="O22">
         <v>2.63</v>
       </c>
       <c r="P22">
+        <v>2.63</v>
+      </c>
+      <c r="Q22">
         <v>29.48</v>
-      </c>
-      <c r="Q22">
-        <v>0.45</v>
       </c>
       <c r="R22">
         <v>0.45</v>
@@ -5116,10 +5128,13 @@
       <c r="T22">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="U22">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B23">
         <v>101.58</v>
@@ -5151,23 +5166,20 @@
       <c r="K23">
         <v>13.56</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>13.56</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>3.14</v>
-      </c>
-      <c r="N23">
-        <v>10.41</v>
       </c>
       <c r="O23">
         <v>10.41</v>
       </c>
       <c r="P23">
+        <v>10.41</v>
+      </c>
+      <c r="Q23">
         <v>29.48</v>
-      </c>
-      <c r="Q23">
-        <v>1.77</v>
       </c>
       <c r="R23">
         <v>1.77</v>
@@ -5178,10 +5190,13 @@
       <c r="T23">
         <v>1.77</v>
       </c>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="U23">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B24">
         <v>109.5</v>
@@ -5214,22 +5229,22 @@
         <v>17.3</v>
       </c>
       <c r="L24">
+        <v>0.27</v>
+      </c>
+      <c r="M24">
         <v>17.57</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>4.89</v>
-      </c>
-      <c r="N24">
-        <v>12.69</v>
       </c>
       <c r="O24">
         <v>12.69</v>
       </c>
       <c r="P24">
+        <v>12.69</v>
+      </c>
+      <c r="Q24">
         <v>29.48</v>
-      </c>
-      <c r="Q24">
-        <v>2.11</v>
       </c>
       <c r="R24">
         <v>2.11</v>
@@ -5240,10 +5255,13 @@
       <c r="T24">
         <v>2.11</v>
       </c>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="U24">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B25">
         <v>101.08</v>
@@ -5275,23 +5293,20 @@
       <c r="K25">
         <v>11.56</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>11.56</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>2.82</v>
-      </c>
-      <c r="N25">
-        <v>8.74</v>
       </c>
       <c r="O25">
         <v>8.74</v>
       </c>
       <c r="P25">
+        <v>8.74</v>
+      </c>
+      <c r="Q25">
         <v>29.48</v>
-      </c>
-      <c r="Q25">
-        <v>1.48</v>
       </c>
       <c r="R25">
         <v>1.48</v>
@@ -5302,10 +5317,13 @@
       <c r="T25">
         <v>1.48</v>
       </c>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="U25">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B26">
         <v>104.22</v>
@@ -5337,23 +5355,20 @@
       <c r="K26">
         <v>13.27</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>13.27</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>4.21</v>
-      </c>
-      <c r="N26">
-        <v>9.06</v>
       </c>
       <c r="O26">
         <v>9.06</v>
       </c>
       <c r="P26">
+        <v>9.06</v>
+      </c>
+      <c r="Q26">
         <v>29.48</v>
-      </c>
-      <c r="Q26">
-        <v>1.54</v>
       </c>
       <c r="R26">
         <v>1.54</v>
@@ -5364,10 +5379,13 @@
       <c r="T26">
         <v>1.54</v>
       </c>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="U26">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B27">
         <v>102.65</v>
@@ -5399,23 +5417,20 @@
       <c r="K27">
         <v>7.24</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>7.24</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>2.19</v>
-      </c>
-      <c r="N27">
-        <v>5.06</v>
       </c>
       <c r="O27">
         <v>5.06</v>
       </c>
       <c r="P27">
+        <v>5.06</v>
+      </c>
+      <c r="Q27">
         <v>29.48</v>
-      </c>
-      <c r="Q27">
-        <v>0.86</v>
       </c>
       <c r="R27">
         <v>0.86</v>
@@ -5426,10 +5441,13 @@
       <c r="T27">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="U27">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B28">
         <v>113.56</v>
@@ -5461,23 +5479,20 @@
       <c r="K28">
         <v>13.08</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>13.08</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>2.79</v>
-      </c>
-      <c r="N28">
-        <v>10.3</v>
       </c>
       <c r="O28">
         <v>10.3</v>
       </c>
       <c r="P28">
+        <v>10.3</v>
+      </c>
+      <c r="Q28">
         <v>29.48</v>
-      </c>
-      <c r="Q28">
-        <v>1.75</v>
       </c>
       <c r="R28">
         <v>1.75</v>
@@ -5488,10 +5503,13 @@
       <c r="T28">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="U28">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B29">
         <v>94.81</v>
@@ -5523,23 +5541,20 @@
       <c r="K29">
         <v>7.23</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>7.23</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>0.96</v>
-      </c>
-      <c r="N29">
-        <v>6.27</v>
       </c>
       <c r="O29">
         <v>6.27</v>
       </c>
       <c r="P29">
+        <v>6.27</v>
+      </c>
+      <c r="Q29">
         <v>29.48</v>
-      </c>
-      <c r="Q29">
-        <v>1.06</v>
       </c>
       <c r="R29">
         <v>1.06</v>
@@ -5550,10 +5565,13 @@
       <c r="T29">
         <v>1.06</v>
       </c>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="U29">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B30">
         <v>90</v>
@@ -5585,23 +5603,20 @@
       <c r="K30">
         <v>2.27</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>2.27</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>0.54</v>
-      </c>
-      <c r="N30">
-        <v>1.73</v>
       </c>
       <c r="O30">
         <v>1.73</v>
       </c>
       <c r="P30">
+        <v>1.73</v>
+      </c>
+      <c r="Q30">
         <v>29.48</v>
-      </c>
-      <c r="Q30">
-        <v>0.29</v>
       </c>
       <c r="R30">
         <v>0.29</v>
@@ -5612,10 +5627,13 @@
       <c r="T30">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="U30">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B31">
         <v>102.6</v>
@@ -5647,23 +5665,20 @@
       <c r="K31">
         <v>5.8</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>5.8</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>1.27</v>
-      </c>
-      <c r="N31">
-        <v>4.53</v>
       </c>
       <c r="O31">
         <v>4.53</v>
       </c>
       <c r="P31">
+        <v>4.53</v>
+      </c>
+      <c r="Q31">
         <v>29.48</v>
-      </c>
-      <c r="Q31">
-        <v>0.77</v>
       </c>
       <c r="R31">
         <v>0.77</v>
@@ -5674,10 +5689,13 @@
       <c r="T31">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="U31">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B32">
         <v>149.4</v>
@@ -5709,23 +5727,20 @@
       <c r="K32">
         <v>30.03</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>30.03</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>7.39</v>
-      </c>
-      <c r="N32">
-        <v>22.65</v>
       </c>
       <c r="O32">
         <v>22.65</v>
       </c>
       <c r="P32">
+        <v>22.65</v>
+      </c>
+      <c r="Q32">
         <v>29.48</v>
-      </c>
-      <c r="Q32">
-        <v>3.84</v>
       </c>
       <c r="R32">
         <v>3.84</v>
@@ -5736,10 +5751,13 @@
       <c r="T32">
         <v>3.84</v>
       </c>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="U32">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B33">
         <v>146.72</v>
@@ -5771,23 +5789,20 @@
       <c r="K33">
         <v>35.53</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>35.53</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>7.65</v>
-      </c>
-      <c r="N33">
-        <v>27.88</v>
       </c>
       <c r="O33">
         <v>27.88</v>
       </c>
       <c r="P33">
+        <v>27.88</v>
+      </c>
+      <c r="Q33">
         <v>29.48</v>
-      </c>
-      <c r="Q33">
-        <v>4.73</v>
       </c>
       <c r="R33">
         <v>4.73</v>
@@ -5798,10 +5813,13 @@
       <c r="T33">
         <v>4.73</v>
       </c>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="U33">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B34">
         <v>130.61</v>
@@ -5834,22 +5852,22 @@
         <v>17.05</v>
       </c>
       <c r="L34">
+        <v>33.75</v>
+      </c>
+      <c r="M34">
         <v>50.8</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>10.92</v>
-      </c>
-      <c r="N34">
-        <v>39.88</v>
       </c>
       <c r="O34">
         <v>39.88</v>
       </c>
       <c r="P34">
+        <v>39.88</v>
+      </c>
+      <c r="Q34">
         <v>29.48</v>
-      </c>
-      <c r="Q34">
-        <v>6.76</v>
       </c>
       <c r="R34">
         <v>6.76</v>
@@ -5860,10 +5878,13 @@
       <c r="T34">
         <v>6.76</v>
       </c>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="U34">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B35">
         <v>125.63</v>
@@ -5896,22 +5917,22 @@
         <v>13</v>
       </c>
       <c r="L35">
+        <v>32.87</v>
+      </c>
+      <c r="M35">
         <v>45.87</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>13.85</v>
-      </c>
-      <c r="N35">
-        <v>32.02</v>
       </c>
       <c r="O35">
         <v>32.02</v>
       </c>
       <c r="P35">
+        <v>32.02</v>
+      </c>
+      <c r="Q35">
         <v>29.48</v>
-      </c>
-      <c r="Q35">
-        <v>5.43</v>
       </c>
       <c r="R35">
         <v>5.43</v>
@@ -5922,10 +5943,13 @@
       <c r="T35">
         <v>5.43</v>
       </c>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="U35">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B36">
         <v>151.78</v>
@@ -5957,23 +5981,20 @@
       <c r="K36">
         <v>27.08</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>27.08</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>6.38</v>
-      </c>
-      <c r="N36">
-        <v>20.71</v>
       </c>
       <c r="O36">
         <v>20.71</v>
       </c>
       <c r="P36">
+        <v>20.71</v>
+      </c>
+      <c r="Q36">
         <v>29.48</v>
-      </c>
-      <c r="Q36">
-        <v>3.51</v>
       </c>
       <c r="R36">
         <v>3.51</v>
@@ -5984,10 +6005,13 @@
       <c r="T36">
         <v>3.51</v>
       </c>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="U36">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B37">
         <v>189.31</v>
@@ -6019,23 +6043,20 @@
       <c r="K37">
         <v>34.07</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>34.07</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>8.83</v>
-      </c>
-      <c r="N37">
-        <v>25.24</v>
       </c>
       <c r="O37">
         <v>25.24</v>
       </c>
       <c r="P37">
+        <v>25.24</v>
+      </c>
+      <c r="Q37">
         <v>29.48</v>
-      </c>
-      <c r="Q37">
-        <v>4.28</v>
       </c>
       <c r="R37">
         <v>4.28</v>
@@ -6046,10 +6067,13 @@
       <c r="T37">
         <v>4.28</v>
       </c>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="U37">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B38">
         <v>175.7</v>
@@ -6081,23 +6105,20 @@
       <c r="K38">
         <v>31.24</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>31.24</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>7.13</v>
-      </c>
-      <c r="N38">
-        <v>24.11</v>
       </c>
       <c r="O38">
         <v>24.11</v>
       </c>
       <c r="P38">
+        <v>24.11</v>
+      </c>
+      <c r="Q38">
         <v>29.48</v>
-      </c>
-      <c r="Q38">
-        <v>4.09</v>
       </c>
       <c r="R38">
         <v>4.09</v>
@@ -6108,10 +6129,13 @@
       <c r="T38">
         <v>4.09</v>
       </c>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="U38">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B39">
         <v>155.44</v>
@@ -6143,23 +6167,20 @@
       <c r="K39">
         <v>27.8</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>27.8</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>5.89</v>
-      </c>
-      <c r="N39">
-        <v>21.91</v>
       </c>
       <c r="O39">
         <v>21.91</v>
       </c>
       <c r="P39">
+        <v>21.91</v>
+      </c>
+      <c r="Q39">
         <v>29.48</v>
-      </c>
-      <c r="Q39">
-        <v>3.72</v>
       </c>
       <c r="R39">
         <v>3.72</v>
@@ -6170,10 +6191,13 @@
       <c r="T39">
         <v>3.72</v>
       </c>
-    </row>
-    <row r="40" spans="1:20">
+      <c r="U39">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B40">
         <v>188.25</v>
@@ -6205,23 +6229,20 @@
       <c r="K40">
         <v>30.77</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>30.77</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>7.66</v>
-      </c>
-      <c r="N40">
-        <v>23.11</v>
       </c>
       <c r="O40">
         <v>23.11</v>
       </c>
       <c r="P40">
+        <v>23.11</v>
+      </c>
+      <c r="Q40">
         <v>29.48</v>
-      </c>
-      <c r="Q40">
-        <v>3.92</v>
       </c>
       <c r="R40">
         <v>3.92</v>
@@ -6232,10 +6253,13 @@
       <c r="T40">
         <v>3.92</v>
       </c>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="U40">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B41">
         <v>212.82</v>
@@ -6267,23 +6291,20 @@
       <c r="K41">
         <v>42.24</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>42.24</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>10.37</v>
-      </c>
-      <c r="N41">
-        <v>31.87</v>
       </c>
       <c r="O41">
         <v>31.87</v>
       </c>
       <c r="P41">
+        <v>31.87</v>
+      </c>
+      <c r="Q41">
         <v>29.48</v>
-      </c>
-      <c r="Q41">
-        <v>5.41</v>
       </c>
       <c r="R41">
         <v>5.41</v>
@@ -6294,10 +6315,13 @@
       <c r="T41">
         <v>5.41</v>
       </c>
-    </row>
-    <row r="42" spans="1:20">
+      <c r="U41">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B42">
         <v>177.09</v>
@@ -6329,23 +6353,20 @@
       <c r="K42">
         <v>22.02</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>22.02</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>5.28</v>
-      </c>
-      <c r="N42">
-        <v>16.74</v>
       </c>
       <c r="O42">
         <v>16.74</v>
       </c>
       <c r="P42">
+        <v>16.74</v>
+      </c>
+      <c r="Q42">
         <v>29.48</v>
-      </c>
-      <c r="Q42">
-        <v>2.84</v>
       </c>
       <c r="R42">
         <v>2.84</v>
@@ -6356,10 +6377,13 @@
       <c r="T42">
         <v>2.84</v>
       </c>
-    </row>
-    <row r="43" spans="1:20">
+      <c r="U42">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B43">
         <v>176.32</v>
@@ -6391,23 +6415,20 @@
       <c r="K43">
         <v>35.97</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>35.97</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>5.95</v>
-      </c>
-      <c r="N43">
-        <v>30.02</v>
       </c>
       <c r="O43">
         <v>30.02</v>
       </c>
       <c r="P43">
+        <v>30.02</v>
+      </c>
+      <c r="Q43">
         <v>29.48</v>
-      </c>
-      <c r="Q43">
-        <v>5.09</v>
       </c>
       <c r="R43">
         <v>5.09</v>
@@ -6418,10 +6439,13 @@
       <c r="T43">
         <v>5.09</v>
       </c>
-    </row>
-    <row r="44" spans="1:20">
+      <c r="U43">
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B44">
         <v>176.94</v>
@@ -6453,23 +6477,20 @@
       <c r="K44">
         <v>36.94</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>36.94</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>2.99</v>
-      </c>
-      <c r="N44">
-        <v>33.95</v>
       </c>
       <c r="O44">
         <v>33.95</v>
       </c>
       <c r="P44">
+        <v>33.95</v>
+      </c>
+      <c r="Q44">
         <v>29.51</v>
-      </c>
-      <c r="Q44">
-        <v>5.75</v>
       </c>
       <c r="R44">
         <v>5.75</v>
@@ -6480,10 +6501,13 @@
       <c r="T44">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="45" spans="1:20">
+      <c r="U44">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B45">
         <v>171.24</v>
@@ -6516,22 +6540,22 @@
         <v>10.45</v>
       </c>
       <c r="L45">
+        <v>-3.12</v>
+      </c>
+      <c r="M45">
         <v>7.33</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>2.14</v>
-      </c>
-      <c r="N45">
-        <v>5.19</v>
       </c>
       <c r="O45">
         <v>5.19</v>
       </c>
       <c r="P45">
+        <v>5.19</v>
+      </c>
+      <c r="Q45">
         <v>29.51</v>
-      </c>
-      <c r="Q45">
-        <v>0.88</v>
       </c>
       <c r="R45">
         <v>0.88</v>
@@ -6542,10 +6566,13 @@
       <c r="T45">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="U45">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B46">
         <v>193.69</v>
@@ -6577,23 +6604,20 @@
       <c r="K46">
         <v>21.21</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>21.21</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>4.79</v>
-      </c>
-      <c r="N46">
-        <v>16.42</v>
       </c>
       <c r="O46">
         <v>16.42</v>
       </c>
       <c r="P46">
+        <v>16.42</v>
+      </c>
+      <c r="Q46">
         <v>29.5</v>
-      </c>
-      <c r="Q46">
-        <v>2.78</v>
       </c>
       <c r="R46">
         <v>2.78</v>
@@ -6602,6 +6626,9 @@
         <v>2.78</v>
       </c>
       <c r="T46">
+        <v>2.78</v>
+      </c>
+      <c r="U46">
         <v>2.78</v>
       </c>
     </row>
@@ -6620,58 +6647,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:18">
